--- a/biology/Botanique/Schultesia_guianensis/Schultesia_guianensis.xlsx
+++ b/biology/Botanique/Schultesia_guianensis/Schultesia_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Schultesia guianensis est une  espèce de plante herbacée, néotropicale et africaine, appartenant à la famille des Gentianaceae.
-On l'appelle en Guyane centaurée, centaurelle de Cayenne (nom partégé avec d'autres Gentianaceae proches)[3], centaurelle, petite centaurée[4],[5].
+On l'appelle en Guyane centaurée, centaurelle de Cayenne (nom partégé avec d'autres Gentianaceae proches), centaurelle, petite centaurée,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Schultesia guianensis est une plante herbacée, parfois ramifiée, parfois plus grande et robuste, atteignant jusqu'à (4-)10-60 cm de haut.
 Les tiges et branches atteignent 0,05-0,2 cm de diamètre. Les entrenœuds sont longs de 1-4,5 cm (parfois plus courts à la base).
@@ -531,7 +545,7 @@
 Les anthères sont de couleur jaunes, de forme (étroitement) ellipsoïdes à étroitement oblongues, et longues de (1,5-)3,5-5 mm.
 Le pistil est long de 16-20 mm, avec l'ovaire de forme étroitement ovoïde à ovoïde, mesurant 5-12 x (2,5-)4-6 mm, dépourvu d'anneau en forme de disque, et avec un style blanc, long de 6-13 mm, dépassant du tube de la corolle.
 Le stigmate est de couleur jaune, à lobes très largement ovales, longs de 1-2,5 mm.
-Le fruit est de forme ellipsoïde, long de 6-13 mm avec le calice et généralement la corolle persistants (les ailes du calice sont larges de 3-5 mm dans le fruit)[6],[7].
+Le fruit est de forme ellipsoïde, long de 6-13 mm avec le calice et généralement la corolle persistants (les ailes du calice sont larges de 3-5 mm dans le fruit),.
 </t>
         </is>
       </c>
@@ -560,9 +574,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Schultesia guianensis du sud du Mexique au Brésil (nord, nord-est et sud-est), en passant par le Honduras, le Costa Rica, le Panama, les grandes Antilles (Cuba, Hispaniola), la Colombie, la Bolivie, Trinidad, le Venezuela (Amazonas, Cojedes, Apure, Orinoco, Carabobo), le Guyana, (territoire du Roraima, savane N Rupununi), le Suriname (dans les savanes côtières, et du Sipaliwini), et la Guyane (dans les savanes côtières)[6],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Schultesia guianensis du sud du Mexique au Brésil (nord, nord-est et sud-est), en passant par le Honduras, le Costa Rica, le Panama, les grandes Antilles (Cuba, Hispaniola), la Colombie, la Bolivie, Trinidad, le Venezuela (Amazonas, Cojedes, Apure, Orinoco, Carabobo), le Guyana, (territoire du Roraima, savane N Rupununi), le Suriname (dans les savanes côtières, et du Sipaliwini), et la Guyane (dans les savanes côtières),.
 </t>
         </is>
       </c>
@@ -591,10 +607,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Schultesia guianensis pousse dans les savanes de sable humide, souvent dans les zones inondées, sur les sables ou roches granitiques, dans les zones de prairies des terre ferme, sur sol argileux, le cerrado, les caatingas, campos rupestres (en), les forêts et restingas, à 0-110 m d'altitude[6]. Elle fleurit et fructifie toute l'année[7].
-Les orbicules (ultrastructures cellulaires) de Schultesia guianensis ont été étudiées[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schultesia guianensis pousse dans les savanes de sable humide, souvent dans les zones inondées, sur les sables ou roches granitiques, dans les zones de prairies des terre ferme, sur sol argileux, le cerrado, les caatingas, campos rupestres (en), les forêts et restingas, à 0-110 m d'altitude. Elle fleurit et fructifie toute l'année.
+Les orbicules (ultrastructures cellulaires) de Schultesia guianensis ont été étudiées.
 </t>
         </is>
       </c>
@@ -623,13 +641,15 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1897, Heckel rapporte sur Schultesia guianensis : « Infusions recommandées. Amer, fébrifuge; très employé. »[3].
-En Guyane, l'infusion amère est utilisée comme apéritif, fébrifuge et emménagogue[6],[4],[5].
-Schultesia guianensis est utilisée comme antipaludéen en Amérique du sud[9].
-Schultesia guianensis est réputée toxique pour le bétail[10],[11],[12].
-On a isolé un alcaloïde original dans Schultesia guianensis[13].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1897, Heckel rapporte sur Schultesia guianensis : « Infusions recommandées. Amer, fébrifuge; très employé. ».
+En Guyane, l'infusion amère est utilisée comme apéritif, fébrifuge et emménagogue.
+Schultesia guianensis est utilisée comme antipaludéen en Amérique du sud.
+Schultesia guianensis est réputée toxique pour le bétail.
+On a isolé un alcaloïde original dans Schultesia guianensis.
 </t>
         </is>
       </c>
@@ -658,9 +678,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet en a proposé décrite pour la première fois Schultesia guianensis sous le nom de Exacum tenuifolium et en a proposé le protologue suivant[14] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet en a proposé décrite pour la première fois Schultesia guianensis sous le nom de Exacum tenuifolium et en a proposé le protologue suivant : 
 « 1. EXACUM (Guianenſe) foliis connatis, obi ongis, acutis ', floribus purpuraſcentibus. (Tabula 16. fig. 1.) 
 Planta annua. Radix ramoſa &amp; fibroſa. Caulis pedalis, ramoſusi ramjs &amp; ramusculis pppouus, Folia oppoſita ſeſſilia, lanceoiata, glauca, integerrima. Flores axillares, ſolitarii. Calix, perianthium quadripartitum ; laciniis acutis, oblongis, extus in medio coſtà, membranaceà, criſpà, notatis.
 Corolla monopetala, infundibuliformis, purpuraſcens ; limbus quadrifidus ; lobis ſubrotundis, ad oras undatis.
